--- a/data_year/zb/科技/规模以上工业企业专利情况/按行业分规模以上工业企业有效发明专利数.xlsx
+++ b/data_year/zb/科技/规模以上工业企业专利情况/按行业分规模以上工业企业有效发明专利数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16358</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12071</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6759</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1613</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11917</v>
+      </c>
+      <c r="G2" t="n">
+        <v>733</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>578</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3393</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1102</v>
+      </c>
       <c r="L2" t="n">
-        <v>30315</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>201089</v>
+      </c>
+      <c r="M2" t="n">
+        <v>863</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1229</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>583</v>
+      </c>
+      <c r="R2" t="n">
+        <v>999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>116</v>
+      </c>
+      <c r="T2" t="n">
+        <v>490</v>
+      </c>
+      <c r="U2" t="n">
+        <v>606</v>
+      </c>
+      <c r="V2" t="n">
+        <v>48</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24052</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>377</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1228</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>954</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>686</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>62159</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13464</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>809</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4780</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6366</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>118</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1239</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4119</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21785</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2261</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16777</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1064</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15058</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1016</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>814</v>
+      </c>
       <c r="L3" t="n">
-        <v>80252</v>
+        <v>277196</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>5338</v>
+      </c>
+      <c r="P3" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1224</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>128</v>
+      </c>
+      <c r="T3" t="n">
+        <v>710</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1023</v>
+      </c>
+      <c r="V3" t="n">
+        <v>69</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3078</v>
+      </c>
+      <c r="X3" t="n">
+        <v>31346</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>1514</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>807</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2245</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>83589</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>22984</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1042</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8093</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7740</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>157</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2375</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>5976</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28145</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3221</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22005</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19558</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1404</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>880</v>
+      </c>
       <c r="L4" t="n">
-        <v>118245</v>
+        <v>335401</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>6753</v>
+      </c>
+      <c r="P4" t="n">
+        <v>140</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1011</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>138</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1168</v>
+      </c>
+      <c r="U4" t="n">
+        <v>835</v>
+      </c>
+      <c r="V4" t="n">
+        <v>49</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3602</v>
+      </c>
+      <c r="X4" t="n">
+        <v>38601</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1198</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2587</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>97994</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23994</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1282</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9656</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8941</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>221</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>3105</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>7018</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>540</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16358</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12071</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6759</v>
-      </c>
+        <v>39555</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1613</v>
+        <v>4858</v>
       </c>
       <c r="F5" t="n">
-        <v>11917</v>
+        <v>29433</v>
       </c>
       <c r="G5" t="n">
-        <v>733</v>
+        <v>1394</v>
       </c>
       <c r="H5" t="n">
-        <v>10506</v>
+        <v>24799</v>
       </c>
       <c r="I5" t="n">
-        <v>578</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3393</v>
-      </c>
+        <v>1610</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1102</v>
+        <v>2073</v>
       </c>
       <c r="L5" t="n">
-        <v>201089</v>
-      </c>
-      <c r="M5" t="n">
-        <v>863</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1229</v>
-      </c>
+        <v>448885</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>4651</v>
+        <v>8361</v>
       </c>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="Q5" t="n">
-        <v>583</v>
-      </c>
-      <c r="R5" t="n">
-        <v>999</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="T5" t="n">
-        <v>490</v>
+        <v>1605</v>
       </c>
       <c r="U5" t="n">
-        <v>606</v>
+        <v>1222</v>
       </c>
       <c r="V5" t="n">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="W5" t="n">
-        <v>2415</v>
+        <v>6710</v>
       </c>
       <c r="X5" t="n">
-        <v>24052</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>377</v>
-      </c>
+        <v>51467</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>1228</v>
+        <v>1900</v>
       </c>
       <c r="AA5" t="n">
-        <v>954</v>
+        <v>1255</v>
       </c>
       <c r="AB5" t="n">
-        <v>1962</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>686</v>
-      </c>
+        <v>4338</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>62159</v>
+        <v>126488</v>
       </c>
       <c r="AE5" t="n">
-        <v>13464</v>
+        <v>33014</v>
       </c>
       <c r="AF5" t="n">
-        <v>809</v>
+        <v>1877</v>
       </c>
       <c r="AG5" t="n">
-        <v>4780</v>
+        <v>12514</v>
       </c>
       <c r="AH5" t="n">
-        <v>6366</v>
+        <v>11574</v>
       </c>
       <c r="AI5" t="n">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1435</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1239</v>
-      </c>
+        <v>4411</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>4119</v>
+        <v>9543</v>
       </c>
       <c r="AM5" t="n">
-        <v>204</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21785</v>
+        <v>49732</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2261</v>
+        <v>6160</v>
       </c>
       <c r="F6" t="n">
-        <v>16777</v>
+        <v>37649</v>
       </c>
       <c r="G6" t="n">
-        <v>1064</v>
+        <v>1700</v>
       </c>
       <c r="H6" t="n">
-        <v>15058</v>
+        <v>31259</v>
       </c>
       <c r="I6" t="n">
-        <v>1016</v>
+        <v>2044</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>814</v>
+        <v>1764</v>
       </c>
       <c r="L6" t="n">
-        <v>277196</v>
+        <v>573765</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>5338</v>
+        <v>10451</v>
       </c>
       <c r="P6" t="n">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="Q6" t="n">
-        <v>1224</v>
+        <v>1270</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="T6" t="n">
-        <v>710</v>
+        <v>2950</v>
       </c>
       <c r="U6" t="n">
-        <v>1023</v>
+        <v>1616</v>
       </c>
       <c r="V6" t="n">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="W6" t="n">
-        <v>3078</v>
+        <v>8832</v>
       </c>
       <c r="X6" t="n">
-        <v>31346</v>
+        <v>63837</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>1514</v>
+        <v>2775</v>
       </c>
       <c r="AA6" t="n">
-        <v>807</v>
+        <v>1334</v>
       </c>
       <c r="AB6" t="n">
-        <v>2245</v>
+        <v>4774</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>83589</v>
+        <v>170387</v>
       </c>
       <c r="AE6" t="n">
-        <v>22984</v>
+        <v>40413</v>
       </c>
       <c r="AF6" t="n">
-        <v>1042</v>
+        <v>2558</v>
       </c>
       <c r="AG6" t="n">
-        <v>8093</v>
+        <v>15667</v>
       </c>
       <c r="AH6" t="n">
-        <v>7740</v>
+        <v>13177</v>
       </c>
       <c r="AI6" t="n">
-        <v>157</v>
+        <v>344</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2375</v>
+        <v>6431</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>5976</v>
+        <v>12322</v>
       </c>
       <c r="AM6" t="n">
-        <v>376</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28145</v>
+        <v>67163</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>3221</v>
+        <v>7520</v>
       </c>
       <c r="F7" t="n">
-        <v>22005</v>
+        <v>48805</v>
       </c>
       <c r="G7" t="n">
-        <v>1288</v>
+        <v>2510</v>
       </c>
       <c r="H7" t="n">
-        <v>19558</v>
+        <v>37463</v>
       </c>
       <c r="I7" t="n">
-        <v>1404</v>
+        <v>3312</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>880</v>
+        <v>4031</v>
       </c>
       <c r="L7" t="n">
-        <v>335401</v>
+        <v>769847</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>6753</v>
+        <v>13527</v>
       </c>
       <c r="P7" t="n">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="Q7" t="n">
-        <v>1011</v>
+        <v>1708</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>138</v>
+        <v>491</v>
       </c>
       <c r="T7" t="n">
-        <v>1168</v>
+        <v>3081</v>
       </c>
       <c r="U7" t="n">
-        <v>835</v>
+        <v>1944</v>
       </c>
       <c r="V7" t="n">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="W7" t="n">
-        <v>3602</v>
+        <v>12893</v>
       </c>
       <c r="X7" t="n">
-        <v>38601</v>
+        <v>85028</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>1710</v>
+        <v>3061</v>
       </c>
       <c r="AA7" t="n">
-        <v>1198</v>
+        <v>1994</v>
       </c>
       <c r="AB7" t="n">
-        <v>2587</v>
+        <v>6359</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>97994</v>
+        <v>227365</v>
       </c>
       <c r="AE7" t="n">
-        <v>23994</v>
+        <v>55508</v>
       </c>
       <c r="AF7" t="n">
-        <v>1282</v>
+        <v>4741</v>
       </c>
       <c r="AG7" t="n">
-        <v>9656</v>
+        <v>22231</v>
       </c>
       <c r="AH7" t="n">
-        <v>8941</v>
+        <v>19013</v>
       </c>
       <c r="AI7" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3105</v>
+        <v>7863</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>7018</v>
+        <v>15661</v>
       </c>
       <c r="AM7" t="n">
-        <v>540</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39555</v>
+        <v>81588</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>4858</v>
+        <v>8657</v>
       </c>
       <c r="F8" t="n">
-        <v>29433</v>
+        <v>54262</v>
       </c>
       <c r="G8" t="n">
-        <v>1394</v>
+        <v>2643</v>
       </c>
       <c r="H8" t="n">
-        <v>24799</v>
+        <v>41673</v>
       </c>
       <c r="I8" t="n">
-        <v>1610</v>
+        <v>3792</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>2073</v>
+        <v>4085</v>
       </c>
       <c r="L8" t="n">
-        <v>448885</v>
+        <v>933990</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>8361</v>
+        <v>16250</v>
       </c>
       <c r="P8" t="n">
-        <v>176</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="n">
-        <v>991</v>
+        <v>2091</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>205</v>
+        <v>619</v>
       </c>
       <c r="T8" t="n">
-        <v>1605</v>
+        <v>3796</v>
       </c>
       <c r="U8" t="n">
-        <v>1222</v>
+        <v>2366</v>
       </c>
       <c r="V8" t="n">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="W8" t="n">
-        <v>6710</v>
+        <v>15613</v>
       </c>
       <c r="X8" t="n">
-        <v>51467</v>
+        <v>109179</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>1900</v>
+        <v>3606</v>
       </c>
       <c r="AA8" t="n">
-        <v>1255</v>
+        <v>2261</v>
       </c>
       <c r="AB8" t="n">
-        <v>4338</v>
+        <v>8320</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>126488</v>
+        <v>274170</v>
       </c>
       <c r="AE8" t="n">
-        <v>33014</v>
+        <v>65982</v>
       </c>
       <c r="AF8" t="n">
-        <v>1877</v>
+        <v>5027</v>
       </c>
       <c r="AG8" t="n">
-        <v>12514</v>
+        <v>28081</v>
       </c>
       <c r="AH8" t="n">
-        <v>11574</v>
+        <v>23267</v>
       </c>
       <c r="AI8" t="n">
-        <v>244</v>
+        <v>503</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4411</v>
+        <v>9344</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>9543</v>
+        <v>18308</v>
       </c>
       <c r="AM8" t="n">
-        <v>893</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49732</v>
+        <v>97839</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>6160</v>
+        <v>9524</v>
       </c>
       <c r="F9" t="n">
-        <v>37649</v>
+        <v>61451</v>
       </c>
       <c r="G9" t="n">
-        <v>1700</v>
+        <v>3595</v>
       </c>
       <c r="H9" t="n">
-        <v>31259</v>
+        <v>45766</v>
       </c>
       <c r="I9" t="n">
-        <v>2044</v>
+        <v>5284</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>1764</v>
+        <v>6546</v>
       </c>
       <c r="L9" t="n">
-        <v>573765</v>
+        <v>1094200</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>10451</v>
+        <v>17256</v>
       </c>
       <c r="P9" t="n">
-        <v>318</v>
+        <v>761</v>
       </c>
       <c r="Q9" t="n">
-        <v>1270</v>
+        <v>3246</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>292</v>
+        <v>906</v>
       </c>
       <c r="T9" t="n">
-        <v>2950</v>
+        <v>4196</v>
       </c>
       <c r="U9" t="n">
-        <v>1616</v>
+        <v>2596</v>
       </c>
       <c r="V9" t="n">
-        <v>184</v>
+        <v>371</v>
       </c>
       <c r="W9" t="n">
-        <v>8832</v>
+        <v>20446</v>
       </c>
       <c r="X9" t="n">
-        <v>63837</v>
+        <v>136014</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>2775</v>
+        <v>4784</v>
       </c>
       <c r="AA9" t="n">
-        <v>1334</v>
+        <v>3466</v>
       </c>
       <c r="AB9" t="n">
-        <v>4774</v>
+        <v>10822</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>170387</v>
+        <v>300369</v>
       </c>
       <c r="AE9" t="n">
-        <v>40413</v>
+        <v>78732</v>
       </c>
       <c r="AF9" t="n">
-        <v>2558</v>
+        <v>6091</v>
       </c>
       <c r="AG9" t="n">
-        <v>15667</v>
+        <v>39321</v>
       </c>
       <c r="AH9" t="n">
-        <v>13177</v>
+        <v>27727</v>
       </c>
       <c r="AI9" t="n">
-        <v>344</v>
+        <v>570</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6431</v>
+        <v>10906</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>12322</v>
+        <v>17006</v>
       </c>
       <c r="AM9" t="n">
-        <v>766</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67163</v>
+        <v>107509</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>7520</v>
+        <v>10805</v>
       </c>
       <c r="F10" t="n">
-        <v>48805</v>
+        <v>65333</v>
       </c>
       <c r="G10" t="n">
-        <v>2510</v>
+        <v>4067</v>
       </c>
       <c r="H10" t="n">
-        <v>37463</v>
+        <v>47910</v>
       </c>
       <c r="I10" t="n">
-        <v>3312</v>
+        <v>6462</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>4031</v>
+        <v>7178</v>
       </c>
       <c r="L10" t="n">
-        <v>769847</v>
+        <v>1218074</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>13527</v>
+        <v>18271</v>
       </c>
       <c r="P10" t="n">
-        <v>341</v>
+        <v>994</v>
       </c>
       <c r="Q10" t="n">
-        <v>1708</v>
+        <v>3236</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>491</v>
+        <v>1070</v>
       </c>
       <c r="T10" t="n">
-        <v>3081</v>
+        <v>4454</v>
       </c>
       <c r="U10" t="n">
-        <v>1944</v>
+        <v>3442</v>
       </c>
       <c r="V10" t="n">
-        <v>204</v>
+        <v>532</v>
       </c>
       <c r="W10" t="n">
-        <v>12893</v>
+        <v>27078</v>
       </c>
       <c r="X10" t="n">
-        <v>85028</v>
+        <v>143142</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>3061</v>
+        <v>5096</v>
       </c>
       <c r="AA10" t="n">
-        <v>1994</v>
+        <v>3806</v>
       </c>
       <c r="AB10" t="n">
-        <v>6359</v>
+        <v>11897</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>227365</v>
+        <v>340117</v>
       </c>
       <c r="AE10" t="n">
-        <v>55508</v>
+        <v>91608</v>
       </c>
       <c r="AF10" t="n">
-        <v>4741</v>
+        <v>6608</v>
       </c>
       <c r="AG10" t="n">
-        <v>22231</v>
+        <v>43567</v>
       </c>
       <c r="AH10" t="n">
-        <v>19013</v>
+        <v>31743</v>
       </c>
       <c r="AI10" t="n">
-        <v>353</v>
+        <v>781</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7863</v>
+        <v>12303</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>15661</v>
+        <v>18331</v>
       </c>
       <c r="AM10" t="n">
-        <v>965</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81588</v>
+        <v>130208</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>8657</v>
+        <v>13432</v>
       </c>
       <c r="F11" t="n">
-        <v>54262</v>
+        <v>75728</v>
       </c>
       <c r="G11" t="n">
-        <v>2643</v>
+        <v>4455</v>
       </c>
       <c r="H11" t="n">
-        <v>41673</v>
+        <v>56784</v>
       </c>
       <c r="I11" t="n">
-        <v>3792</v>
+        <v>7731</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>4085</v>
+        <v>6653</v>
       </c>
       <c r="L11" t="n">
-        <v>933990</v>
+        <v>1447950</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>16250</v>
+        <v>21020</v>
       </c>
       <c r="P11" t="n">
-        <v>578</v>
+        <v>945</v>
       </c>
       <c r="Q11" t="n">
-        <v>2091</v>
+        <v>3879</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>619</v>
+        <v>1378</v>
       </c>
       <c r="T11" t="n">
-        <v>3796</v>
+        <v>4977</v>
       </c>
       <c r="U11" t="n">
-        <v>2366</v>
+        <v>2500</v>
       </c>
       <c r="V11" t="n">
-        <v>224</v>
+        <v>589</v>
       </c>
       <c r="W11" t="n">
-        <v>15613</v>
+        <v>35020</v>
       </c>
       <c r="X11" t="n">
-        <v>109179</v>
+        <v>167931</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>3606</v>
+        <v>5673</v>
       </c>
       <c r="AA11" t="n">
-        <v>2261</v>
+        <v>4481</v>
       </c>
       <c r="AB11" t="n">
-        <v>8320</v>
+        <v>15444</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>274170</v>
+        <v>402244</v>
       </c>
       <c r="AE11" t="n">
-        <v>65982</v>
+        <v>115282</v>
       </c>
       <c r="AF11" t="n">
-        <v>5027</v>
+        <v>7941</v>
       </c>
       <c r="AG11" t="n">
-        <v>28081</v>
+        <v>51889</v>
       </c>
       <c r="AH11" t="n">
-        <v>23267</v>
+        <v>41678</v>
       </c>
       <c r="AI11" t="n">
-        <v>503</v>
+        <v>819</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9344</v>
+        <v>15095</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>18308</v>
+        <v>21280</v>
       </c>
       <c r="AM11" t="n">
-        <v>1038</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97839</v>
+        <v>140623</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>9524</v>
+        <v>16668</v>
       </c>
       <c r="F12" t="n">
-        <v>61451</v>
+        <v>86796</v>
       </c>
       <c r="G12" t="n">
-        <v>3595</v>
+        <v>5417</v>
       </c>
       <c r="H12" t="n">
-        <v>45766</v>
+        <v>64511</v>
       </c>
       <c r="I12" t="n">
-        <v>5284</v>
+        <v>9996</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>6546</v>
+        <v>7556</v>
       </c>
       <c r="L12" t="n">
-        <v>1094200</v>
+        <v>1691909</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>17256</v>
+        <v>23818</v>
       </c>
       <c r="P12" t="n">
-        <v>761</v>
+        <v>1106</v>
       </c>
       <c r="Q12" t="n">
-        <v>3246</v>
+        <v>4543</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>906</v>
+        <v>1898</v>
       </c>
       <c r="T12" t="n">
-        <v>4196</v>
+        <v>6343</v>
       </c>
       <c r="U12" t="n">
-        <v>2596</v>
+        <v>3240</v>
       </c>
       <c r="V12" t="n">
-        <v>371</v>
+        <v>725</v>
       </c>
       <c r="W12" t="n">
-        <v>20446</v>
+        <v>47236</v>
       </c>
       <c r="X12" t="n">
-        <v>136014</v>
+        <v>191831</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>4784</v>
+        <v>6617</v>
       </c>
       <c r="AA12" t="n">
-        <v>3466</v>
+        <v>5271</v>
       </c>
       <c r="AB12" t="n">
-        <v>10822</v>
+        <v>17434</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>300369</v>
+        <v>496094</v>
       </c>
       <c r="AE12" t="n">
-        <v>78732</v>
+        <v>128191</v>
       </c>
       <c r="AF12" t="n">
-        <v>6091</v>
+        <v>9329</v>
       </c>
       <c r="AG12" t="n">
-        <v>39321</v>
+        <v>59520</v>
       </c>
       <c r="AH12" t="n">
-        <v>27727</v>
+        <v>50879</v>
       </c>
       <c r="AI12" t="n">
-        <v>570</v>
+        <v>1013</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10906</v>
+        <v>18262</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>17006</v>
+        <v>23471</v>
       </c>
       <c r="AM12" t="n">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>107509</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>10805</v>
-      </c>
-      <c r="F13" t="n">
-        <v>65333</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4067</v>
-      </c>
-      <c r="H13" t="n">
-        <v>47910</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6462</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7178</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1218074</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>18271</v>
-      </c>
-      <c r="P13" t="n">
-        <v>994</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3236</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1070</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4454</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3442</v>
-      </c>
-      <c r="V13" t="n">
-        <v>532</v>
-      </c>
-      <c r="W13" t="n">
-        <v>27078</v>
-      </c>
-      <c r="X13" t="n">
-        <v>143142</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>5096</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3806</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11897</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>340117</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>91608</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6608</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>43567</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>31743</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>781</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12303</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>18331</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>130208</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>13432</v>
-      </c>
-      <c r="F14" t="n">
-        <v>75728</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4455</v>
-      </c>
-      <c r="H14" t="n">
-        <v>56784</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7731</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>6653</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1447950</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>21020</v>
-      </c>
-      <c r="P14" t="n">
-        <v>945</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3879</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4977</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2500</v>
-      </c>
-      <c r="V14" t="n">
-        <v>589</v>
-      </c>
-      <c r="W14" t="n">
-        <v>35020</v>
-      </c>
-      <c r="X14" t="n">
-        <v>167931</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>5673</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>4481</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15444</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>402244</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>115282</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7941</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>51889</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>41678</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>819</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15095</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>21280</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1920</v>
+        <v>2212</v>
       </c>
     </row>
   </sheetData>
